--- a/biology/Botanique/Parc_de_Tammer/Parc_de_Tammer.xlsx
+++ b/biology/Botanique/Parc_de_Tammer/Parc_de_Tammer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Tammer (finnois : Tammerinpuisto) est un parc du quartier de Kyttälä à  Tampere en Finlande.
 </t>
@@ -511,19 +523,21 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Tammer est un petit parc achevé en 1930 au centre de Tampere à côté de l'hôtel Tammer. 
-Le parc faisait à l'origine partie du Parc des rapides[1],[2],[3].
-Le parc comprend le petit étang Tammerlampi qui a aussi été appelé « étang aux canards » et « étang de Tammer »[1],[2]. 
-Il abritait autrefois des oiseaux aquatiques[4]. 
+Le parc faisait à l'origine partie du Parc des rapides.
+Le parc comprend le petit étang Tammerlampi qui a aussi été appelé « étang aux canards » et « étang de Tammer »,. 
+Il abritait autrefois des oiseaux aquatiques. 
 L'étang est situé à l’endroit où un fossé naturel appelé Ronganoja se deversait dans la crique des rapides  Tammerkoski. 
 Aujourd'hui, les rapides sont situés plus loin, car la crique a été comblée près de Koskipuisto. 
-Le fossé  Ronganoja a disparu sous la rue Rongankatu[5],[6],[7].
+Le fossé  Ronganoja a disparu sous la rue Rongankatu.
 Le parc Tammerinpuisto a été rénové entre 2000 et 2002 et les travaux se sont achevé en 2007. 
 La zone d'eau était entourée d'un mur de granit et d'une clôture métallique. Un sentier pavé a été aménagé dans le parc.
-Depuis 2010, des oeuvres d'art sculptural finlandais sont exposées dans l'étang pendant l'été[2],[5],[8].
-La direction des musées de Finlande a classé le parc de Tammer comme faisant partie du site culturel construit d'intérêt national de Tammerkoski[9].
+Depuis 2010, des oeuvres d'art sculptural finlandais sont exposées dans l'étang pendant l'été.
+La direction des musées de Finlande a classé le parc de Tammer comme faisant partie du site culturel construit d'intérêt national de Tammerkoski.
 </t>
         </is>
       </c>
